--- a/natmiOut/OldD7/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.748475646886</v>
+        <v>1.840954666666667</v>
       </c>
       <c r="H2">
-        <v>1.748475646886</v>
+        <v>5.522864</v>
       </c>
       <c r="I2">
-        <v>0.1690943247101644</v>
+        <v>0.1665577163991766</v>
       </c>
       <c r="J2">
-        <v>0.1690943247101644</v>
+        <v>0.1665577163991766</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7468931181356</v>
+        <v>11.84297166666667</v>
       </c>
       <c r="N2">
-        <v>10.7468931181356</v>
+        <v>35.528915</v>
       </c>
       <c r="O2">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="P2">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="Q2">
-        <v>18.79068089674685</v>
+        <v>21.80237395695111</v>
       </c>
       <c r="R2">
-        <v>18.79068089674685</v>
+        <v>196.22136561256</v>
       </c>
       <c r="S2">
-        <v>0.02080502571477758</v>
+        <v>0.02001203332583712</v>
       </c>
       <c r="T2">
-        <v>0.02080502571477758</v>
+        <v>0.02001203332583713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.748475646886</v>
+        <v>1.840954666666667</v>
       </c>
       <c r="H3">
-        <v>1.748475646886</v>
+        <v>5.522864</v>
       </c>
       <c r="I3">
-        <v>0.1690943247101644</v>
+        <v>0.1665577163991766</v>
       </c>
       <c r="J3">
-        <v>0.1690943247101644</v>
+        <v>0.1665577163991766</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8761564486088</v>
+        <v>10.940628</v>
       </c>
       <c r="N3">
-        <v>10.8761564486088</v>
+        <v>32.821884</v>
       </c>
       <c r="O3">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="P3">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="Q3">
-        <v>19.01669468211461</v>
+        <v>20.141200172864</v>
       </c>
       <c r="R3">
-        <v>19.01669468211461</v>
+        <v>181.270801555776</v>
       </c>
       <c r="S3">
-        <v>0.02105526798339514</v>
+        <v>0.01848726977518903</v>
       </c>
       <c r="T3">
-        <v>0.02105526798339514</v>
+        <v>0.01848726977518904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.748475646886</v>
+        <v>1.840954666666667</v>
       </c>
       <c r="H4">
-        <v>1.748475646886</v>
+        <v>5.522864</v>
       </c>
       <c r="I4">
-        <v>0.1690943247101644</v>
+        <v>0.1665577163991766</v>
       </c>
       <c r="J4">
-        <v>0.1690943247101644</v>
+        <v>0.1665577163991766</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.916058847432</v>
+        <v>73.27090866666667</v>
       </c>
       <c r="N4">
-        <v>63.916058847432</v>
+        <v>219.812726</v>
       </c>
       <c r="O4">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="P4">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="Q4">
-        <v>111.7556723396673</v>
+        <v>134.8884212408071</v>
       </c>
       <c r="R4">
-        <v>111.7556723396673</v>
+        <v>1213.995791167264</v>
       </c>
       <c r="S4">
-        <v>0.1237357842206542</v>
+        <v>0.1238118191381613</v>
       </c>
       <c r="T4">
-        <v>0.1237357842206542</v>
+        <v>0.1238118191381613</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.748475646886</v>
+        <v>1.840954666666667</v>
       </c>
       <c r="H5">
-        <v>1.748475646886</v>
+        <v>5.522864</v>
       </c>
       <c r="I5">
-        <v>0.1690943247101644</v>
+        <v>0.1665577163991766</v>
       </c>
       <c r="J5">
-        <v>0.1690943247101644</v>
+        <v>0.1665577163991766</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.80702897861173</v>
+        <v>2.513102666666667</v>
       </c>
       <c r="N5">
-        <v>1.80702897861173</v>
+        <v>7.539308</v>
       </c>
       <c r="O5">
-        <v>0.02068813839455401</v>
+        <v>0.02549623188763971</v>
       </c>
       <c r="P5">
-        <v>0.02068813839455401</v>
+        <v>0.02549623188763971</v>
       </c>
       <c r="Q5">
-        <v>3.159546162319892</v>
+        <v>4.626508082012445</v>
       </c>
       <c r="R5">
-        <v>3.159546162319892</v>
+        <v>41.638572738112</v>
       </c>
       <c r="S5">
-        <v>0.003498246791337536</v>
+        <v>0.004246594159989137</v>
       </c>
       <c r="T5">
-        <v>0.003498246791337536</v>
+        <v>0.004246594159989138</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.77878430338581</v>
+        <v>3.899801666666667</v>
       </c>
       <c r="H6">
-        <v>3.77878430338581</v>
+        <v>11.699405</v>
       </c>
       <c r="I6">
-        <v>0.3654445980671147</v>
+        <v>0.3528289271705964</v>
       </c>
       <c r="J6">
-        <v>0.3654445980671147</v>
+        <v>0.3528289271705964</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7468931181356</v>
+        <v>11.84297166666667</v>
       </c>
       <c r="N6">
-        <v>10.7468931181356</v>
+        <v>35.528915</v>
       </c>
       <c r="O6">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="P6">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="Q6">
-        <v>40.61019102497579</v>
+        <v>46.18524064395277</v>
       </c>
       <c r="R6">
-        <v>40.61019102497579</v>
+        <v>415.667165795575</v>
       </c>
       <c r="S6">
-        <v>0.04496356854758384</v>
+        <v>0.04239265764148194</v>
       </c>
       <c r="T6">
-        <v>0.04496356854758384</v>
+        <v>0.04239265764148194</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.77878430338581</v>
+        <v>3.899801666666667</v>
       </c>
       <c r="H7">
-        <v>3.77878430338581</v>
+        <v>11.699405</v>
       </c>
       <c r="I7">
-        <v>0.3654445980671147</v>
+        <v>0.3528289271705964</v>
       </c>
       <c r="J7">
-        <v>0.3654445980671147</v>
+        <v>0.3528289271705964</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.8761564486088</v>
+        <v>10.940628</v>
       </c>
       <c r="N7">
-        <v>10.8761564486088</v>
+        <v>32.821884</v>
       </c>
       <c r="O7">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="P7">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="Q7">
-        <v>41.09864926917129</v>
+        <v>42.66627930878</v>
       </c>
       <c r="R7">
-        <v>41.09864926917129</v>
+        <v>383.99651377902</v>
       </c>
       <c r="S7">
-        <v>0.04550438909511609</v>
+        <v>0.03916266206160345</v>
       </c>
       <c r="T7">
-        <v>0.04550438909511609</v>
+        <v>0.03916266206160345</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.77878430338581</v>
+        <v>3.899801666666667</v>
       </c>
       <c r="H8">
-        <v>3.77878430338581</v>
+        <v>11.699405</v>
       </c>
       <c r="I8">
-        <v>0.3654445980671147</v>
+        <v>0.3528289271705964</v>
       </c>
       <c r="J8">
-        <v>0.3654445980671147</v>
+        <v>0.3528289271705964</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>63.916058847432</v>
+        <v>73.27090866666667</v>
       </c>
       <c r="N8">
-        <v>63.916058847432</v>
+        <v>219.812726</v>
       </c>
       <c r="O8">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="P8">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="Q8">
-        <v>241.5249999069598</v>
+        <v>285.7420117364478</v>
       </c>
       <c r="R8">
-        <v>241.5249999069598</v>
+        <v>2571.67810562803</v>
       </c>
       <c r="S8">
-        <v>0.2674162720040601</v>
+        <v>0.2622777993237023</v>
       </c>
       <c r="T8">
-        <v>0.2674162720040601</v>
+        <v>0.2622777993237023</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.77878430338581</v>
+        <v>3.899801666666667</v>
       </c>
       <c r="H9">
-        <v>3.77878430338581</v>
+        <v>11.699405</v>
       </c>
       <c r="I9">
-        <v>0.3654445980671147</v>
+        <v>0.3528289271705964</v>
       </c>
       <c r="J9">
-        <v>0.3654445980671147</v>
+        <v>0.3528289271705964</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.80702897861173</v>
+        <v>2.513102666666667</v>
       </c>
       <c r="N9">
-        <v>1.80702897861173</v>
+        <v>7.539308</v>
       </c>
       <c r="O9">
-        <v>0.02068813839455401</v>
+        <v>0.02549623188763971</v>
       </c>
       <c r="P9">
-        <v>0.02068813839455401</v>
+        <v>0.02549623188763971</v>
       </c>
       <c r="Q9">
-        <v>6.828372740141298</v>
+        <v>9.800601967971112</v>
       </c>
       <c r="R9">
-        <v>6.828372740141298</v>
+        <v>88.20541771174001</v>
       </c>
       <c r="S9">
-        <v>0.007560368420354634</v>
+        <v>0.008995808143808669</v>
       </c>
       <c r="T9">
-        <v>0.007560368420354634</v>
+        <v>0.008995808143808669</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.64598918208246</v>
+        <v>2.952690333333333</v>
       </c>
       <c r="H10">
-        <v>2.64598918208246</v>
+        <v>8.858071000000001</v>
       </c>
       <c r="I10">
-        <v>0.2558924710970284</v>
+        <v>0.2671403962621152</v>
       </c>
       <c r="J10">
-        <v>0.2558924710970284</v>
+        <v>0.2671403962621152</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.7468931181356</v>
+        <v>11.84297166666667</v>
       </c>
       <c r="N10">
-        <v>10.7468931181356</v>
+        <v>35.528915</v>
       </c>
       <c r="O10">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="P10">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="Q10">
-        <v>28.43616293158324</v>
+        <v>34.96862795810722</v>
       </c>
       <c r="R10">
-        <v>28.43616293158324</v>
+        <v>314.717651622965</v>
       </c>
       <c r="S10">
-        <v>0.0314844951213885</v>
+        <v>0.03209711701295404</v>
       </c>
       <c r="T10">
-        <v>0.0314844951213885</v>
+        <v>0.03209711701295405</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.64598918208246</v>
+        <v>2.952690333333333</v>
       </c>
       <c r="H11">
-        <v>2.64598918208246</v>
+        <v>8.858071000000001</v>
       </c>
       <c r="I11">
-        <v>0.2558924710970284</v>
+        <v>0.2671403962621152</v>
       </c>
       <c r="J11">
-        <v>0.2558924710970284</v>
+        <v>0.2671403962621152</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.8761564486088</v>
+        <v>10.940628</v>
       </c>
       <c r="N11">
-        <v>10.8761564486088</v>
+        <v>32.821884</v>
       </c>
       <c r="O11">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="P11">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="Q11">
-        <v>28.77819230565527</v>
+        <v>32.304286536196</v>
       </c>
       <c r="R11">
-        <v>28.77819230565527</v>
+        <v>290.738578825764</v>
       </c>
       <c r="S11">
-        <v>0.03186318974995888</v>
+        <v>0.02965156271542781</v>
       </c>
       <c r="T11">
-        <v>0.03186318974995888</v>
+        <v>0.02965156271542782</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.64598918208246</v>
+        <v>2.952690333333333</v>
       </c>
       <c r="H12">
-        <v>2.64598918208246</v>
+        <v>8.858071000000001</v>
       </c>
       <c r="I12">
-        <v>0.2558924710970284</v>
+        <v>0.2671403962621152</v>
       </c>
       <c r="J12">
-        <v>0.2558924710970284</v>
+        <v>0.2671403962621152</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>63.916058847432</v>
+        <v>73.27090866666667</v>
       </c>
       <c r="N12">
-        <v>63.916058847432</v>
+        <v>219.812726</v>
       </c>
       <c r="O12">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="P12">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="Q12">
-        <v>169.121200271651</v>
+        <v>216.3463037346162</v>
       </c>
       <c r="R12">
-        <v>169.121200271651</v>
+        <v>1947.116733611546</v>
       </c>
       <c r="S12">
-        <v>0.1872508473695013</v>
+        <v>0.1985806430440785</v>
       </c>
       <c r="T12">
-        <v>0.1872508473695013</v>
+        <v>0.1985806430440785</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.64598918208246</v>
+        <v>2.952690333333333</v>
       </c>
       <c r="H13">
-        <v>2.64598918208246</v>
+        <v>8.858071000000001</v>
       </c>
       <c r="I13">
-        <v>0.2558924710970284</v>
+        <v>0.2671403962621152</v>
       </c>
       <c r="J13">
-        <v>0.2558924710970284</v>
+        <v>0.2671403962621152</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.80702897861173</v>
+        <v>2.513102666666667</v>
       </c>
       <c r="N13">
-        <v>1.80702897861173</v>
+        <v>7.539308</v>
       </c>
       <c r="O13">
-        <v>0.02068813839455401</v>
+        <v>0.02549623188763971</v>
       </c>
       <c r="P13">
-        <v>0.02068813839455401</v>
+        <v>0.02549623188763971</v>
       </c>
       <c r="Q13">
-        <v>4.781379129116154</v>
+        <v>7.420413950540889</v>
       </c>
       <c r="R13">
-        <v>4.781379129116154</v>
+        <v>66.78372555486801</v>
       </c>
       <c r="S13">
-        <v>0.005293938856179736</v>
+        <v>0.006811073489654849</v>
       </c>
       <c r="T13">
-        <v>0.005293938856179736</v>
+        <v>0.00681107348965485</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.16698936993118</v>
+        <v>2.359506666666667</v>
       </c>
       <c r="H14">
-        <v>2.16698936993118</v>
+        <v>7.07852</v>
       </c>
       <c r="I14">
-        <v>0.2095686061256925</v>
+        <v>0.213472960168112</v>
       </c>
       <c r="J14">
-        <v>0.2095686061256925</v>
+        <v>0.213472960168112</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.7468931181356</v>
+        <v>11.84297166666667</v>
       </c>
       <c r="N14">
-        <v>10.7468931181356</v>
+        <v>35.528915</v>
       </c>
       <c r="O14">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="P14">
-        <v>0.1230379893023516</v>
+        <v>0.1201507426883529</v>
       </c>
       <c r="Q14">
-        <v>23.2884031467864</v>
+        <v>27.94357060064444</v>
       </c>
       <c r="R14">
-        <v>23.2884031467864</v>
+        <v>251.4921354058</v>
       </c>
       <c r="S14">
-        <v>0.02578489991860169</v>
+        <v>0.02564893470807983</v>
       </c>
       <c r="T14">
-        <v>0.02578489991860169</v>
+        <v>0.02564893470807984</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.16698936993118</v>
+        <v>2.359506666666667</v>
       </c>
       <c r="H15">
-        <v>2.16698936993118</v>
+        <v>7.07852</v>
       </c>
       <c r="I15">
-        <v>0.2095686061256925</v>
+        <v>0.213472960168112</v>
       </c>
       <c r="J15">
-        <v>0.2095686061256925</v>
+        <v>0.213472960168112</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.8761564486088</v>
+        <v>10.940628</v>
       </c>
       <c r="N15">
-        <v>10.8761564486088</v>
+        <v>32.821884</v>
       </c>
       <c r="O15">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="P15">
-        <v>0.1245178868036219</v>
+        <v>0.1109961770302011</v>
       </c>
       <c r="Q15">
-        <v>23.56851540984372</v>
+        <v>25.81448470352</v>
       </c>
       <c r="R15">
-        <v>23.56851540984372</v>
+        <v>232.33036233168</v>
       </c>
       <c r="S15">
-        <v>0.02609503997515181</v>
+        <v>0.02369468247798082</v>
       </c>
       <c r="T15">
-        <v>0.02609503997515181</v>
+        <v>0.02369468247798083</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.16698936993118</v>
+        <v>2.359506666666667</v>
       </c>
       <c r="H16">
-        <v>2.16698936993118</v>
+        <v>7.07852</v>
       </c>
       <c r="I16">
-        <v>0.2095686061256925</v>
+        <v>0.213472960168112</v>
       </c>
       <c r="J16">
-        <v>0.2095686061256925</v>
+        <v>0.213472960168112</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.916058847432</v>
+        <v>73.27090866666667</v>
       </c>
       <c r="N16">
-        <v>63.916058847432</v>
+        <v>219.812726</v>
       </c>
       <c r="O16">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="P16">
-        <v>0.7317559854994725</v>
+        <v>0.7433568483938062</v>
       </c>
       <c r="Q16">
-        <v>138.5054200902809</v>
+        <v>172.8831974717245</v>
       </c>
       <c r="R16">
-        <v>138.5054200902809</v>
+        <v>1555.94877724552</v>
       </c>
       <c r="S16">
-        <v>0.1533530819052569</v>
+        <v>0.1586865868878642</v>
       </c>
       <c r="T16">
-        <v>0.1533530819052569</v>
+        <v>0.1586865868878642</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.16698936993118</v>
+        <v>2.359506666666667</v>
       </c>
       <c r="H17">
-        <v>2.16698936993118</v>
+        <v>7.07852</v>
       </c>
       <c r="I17">
-        <v>0.2095686061256925</v>
+        <v>0.213472960168112</v>
       </c>
       <c r="J17">
-        <v>0.2095686061256925</v>
+        <v>0.213472960168112</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.80702897861173</v>
+        <v>2.513102666666667</v>
       </c>
       <c r="N17">
-        <v>1.80702897861173</v>
+        <v>7.539308</v>
       </c>
       <c r="O17">
-        <v>0.02068813839455401</v>
+        <v>0.02549623188763971</v>
       </c>
       <c r="P17">
-        <v>0.02068813839455401</v>
+        <v>0.02549623188763971</v>
       </c>
       <c r="Q17">
-        <v>3.915812587809216</v>
+        <v>5.929682496017779</v>
       </c>
       <c r="R17">
-        <v>3.915812587809216</v>
+        <v>53.36714246416</v>
       </c>
       <c r="S17">
-        <v>0.004335584326682107</v>
+        <v>0.005442756094187057</v>
       </c>
       <c r="T17">
-        <v>0.004335584326682107</v>
+        <v>0.005442756094187057</v>
       </c>
     </row>
   </sheetData>
